--- a/mbs-perturbation/chain/welm/smote/chain_welm_rbf_smote_results.xlsx
+++ b/mbs-perturbation/chain/welm/smote/chain_welm_rbf_smote_results.xlsx
@@ -465,7 +465,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5032537960954447</v>
+        <v>0.5075757575757576</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4935156602921247</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5206073752711496</v>
+        <v>0.5151515151515151</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4969174208144797</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -499,7 +499,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.4782608695652174</v>
+        <v>0.5050505050505051</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -508,7 +508,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.4891193181818182</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5">
@@ -516,7 +516,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.491304347826087</v>
+        <v>0.5088607594936709</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -525,7 +525,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.494639210347175</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="6">
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5065217391304347</v>
+        <v>0.4632911392405064</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.4505965098031801</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4999896255776667</v>
+        <v>0.4999859353023909</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -561,7 +561,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.4849576238877556</v>
+        <v>0.5</v>
       </c>
     </row>
   </sheetData>
